--- a/biology/Médecine/Tachypnée_transitoire_du_nouveau-né/Tachypnée_transitoire_du_nouveau-né.xlsx
+++ b/biology/Médecine/Tachypnée_transitoire_du_nouveau-né/Tachypnée_transitoire_du_nouveau-né.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tachypn%C3%A9e_transitoire_du_nouveau-n%C3%A9</t>
+          <t>Tachypnée_transitoire_du_nouveau-né</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La tachypnée transitoire du nouveau-né, ou détresse respiratoire transitoire du nouveau-né, est une maladie respiratoire atteignant les enfants venant de naître, en particulier les prématurés et les enfants nés par césarienne[1]. Elle entraîne une détresse respiratoire.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tachypnée transitoire du nouveau-né, ou détresse respiratoire transitoire du nouveau-né, est une maladie respiratoire atteignant les enfants venant de naître, en particulier les prématurés et les enfants nés par césarienne. Elle entraîne une détresse respiratoire.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tachypn%C3%A9e_transitoire_du_nouveau-n%C3%A9</t>
+          <t>Tachypnée_transitoire_du_nouveau-né</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le retard de réabsorption du liquide pulmonaire fœtal est responsable de la symptomatologie[1],[2]. La guérison se fait vers la récupération spontanée en environ 48 heures[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le retard de réabsorption du liquide pulmonaire fœtal est responsable de la symptomatologie,. La guérison se fait vers la récupération spontanée en environ 48 heures.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tachypn%C3%A9e_transitoire_du_nouveau-n%C3%A9</t>
+          <t>Tachypnée_transitoire_du_nouveau-né</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Symptomatologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les signes cliniques sont dominés par l'accélération de la fréquence respiratoire (tachypnée) associée à des signes de détresse respiratoire[4].
-La Société Suisse de Néonatologie retient comme définition l'association de 2 critères diagnostics parmi 5 pendant plus de 15 à 30 minutes[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les signes cliniques sont dominés par l'accélération de la fréquence respiratoire (tachypnée) associée à des signes de détresse respiratoire.
+La Société Suisse de Néonatologie retient comme définition l'association de 2 critères diagnostics parmi 5 pendant plus de 15 à 30 minutes :
 fréquence respiratoire &gt; 60 par minute ;
 tirage respiratoire ;
 gémissements expiratoires ;
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tachypn%C3%A9e_transitoire_du_nouveau-n%C3%A9</t>
+          <t>Tachypnée_transitoire_du_nouveau-né</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,10 +594,12 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le traitement est basé sur l'oxygénothérapie. Celle-ci est généralement réalisée de manière non invasive, mais une intubation trachéale peut parfois être nécessaire. Pour cette raison, la prise en charge nécessite une hospitalisation en unité de réanimation.
-Il n'y a pas d'indication à utiliser les diurétiques comme le furosémide[3]. Il n'y a pas de preuves en faveur de l'utilisation du salbutamol comme traitement bronchodilatateur[4].
+Il n'y a pas d'indication à utiliser les diurétiques comme le furosémide. Il n'y a pas de preuves en faveur de l'utilisation du salbutamol comme traitement bronchodilatateur.
 </t>
         </is>
       </c>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tachypn%C3%A9e_transitoire_du_nouveau-n%C3%A9</t>
+          <t>Tachypnée_transitoire_du_nouveau-né</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,9 +628,11 @@
           <t>Pronostic</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La récupération est généralement complète. Les enfants ayant présenté une tachypnée transitoire du nouveau-né sont cependant à risque de développer des syndromes de respiration sifflante à la fin de l'enfance[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La récupération est généralement complète. Les enfants ayant présenté une tachypnée transitoire du nouveau-né sont cependant à risque de développer des syndromes de respiration sifflante à la fin de l'enfance.
 </t>
         </is>
       </c>
